--- a/data_year/zb/住宿和餐饮业/连锁餐饮企业/按登记注册类型和行业分连锁餐饮企业餐位数.xlsx
+++ b/data_year/zb/住宿和餐饮业/连锁餐饮企业/按登记注册类型和行业分连锁餐饮企业餐位数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF18"/>
+  <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,1537 +593,1117 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>19.4</v>
+      </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>43.5</v>
+      </c>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>2.6</v>
+      </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>129.3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>111.6</v>
+      </c>
+      <c r="N2" t="n">
+        <v>88.2</v>
+      </c>
       <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="P2" t="n">
+        <v>44.4</v>
+      </c>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="S2" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U2" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="V2" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X2" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>20.4</v>
+      </c>
       <c r="AD2" t="n">
-        <v>180.1</v>
-      </c>
-      <c r="AE2" t="inlineStr"/>
+        <v>263.7968</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.8</v>
+      </c>
       <c r="AF2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.137</v>
+        <v>0.8066</v>
       </c>
       <c r="C3" t="n">
-        <v>13.1963</v>
+        <v>23.1491</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>30.23</v>
+        <v>44.3671</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>0.483</v>
+        <v>0.8374</v>
       </c>
       <c r="H3" t="n">
-        <v>1.8933</v>
+        <v>1.86</v>
       </c>
       <c r="I3" t="n">
-        <v>103.5439</v>
+        <v>132.9188</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.1177</v>
       </c>
       <c r="K3" t="n">
-        <v>1.0368</v>
+        <v>0.4745</v>
       </c>
       <c r="L3" t="n">
-        <v>98.42</v>
+        <v>12.13</v>
       </c>
       <c r="M3" t="n">
-        <v>134.9756</v>
+        <v>118.2952</v>
       </c>
       <c r="N3" t="n">
-        <v>18.2223</v>
+        <v>82.20950000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>49.1958</v>
+        <v>109.4399</v>
       </c>
       <c r="P3" t="n">
-        <v>30.23</v>
+        <v>45.4848</v>
       </c>
       <c r="Q3" t="n">
-        <v>191.6269</v>
+        <v>162.4837</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3858</v>
+        <v>0.2136</v>
       </c>
       <c r="S3" t="n">
-        <v>3.7897</v>
+        <v>8.124700000000001</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.6485</v>
       </c>
       <c r="U3" t="n">
-        <v>7.2833</v>
+        <v>25.8572</v>
       </c>
       <c r="V3" t="n">
-        <v>3.1078</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.8224</v>
-      </c>
+        <v>15.8704</v>
+      </c>
+      <c r="W3" t="inlineStr"/>
       <c r="X3" t="n">
-        <v>55.8492</v>
+        <v>60.08</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.1595</v>
+        <v>3.0636</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.0738</v>
+        <v>6.0084</v>
       </c>
       <c r="AA3" t="n">
-        <v>66.9049</v>
+        <v>69.152</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.7272999999999999</v>
+        <v>0.8856000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.0213</v>
+        <v>15.641</v>
       </c>
       <c r="AD3" t="n">
-        <v>245.8</v>
+        <v>277.0712</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.1406</v>
+        <v>0.4435</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.0868</v>
+        <v>3.2876</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.3934</v>
+        <v>0.8552999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>12.9287</v>
+        <v>24.8435</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>52.5352</v>
+        <v>51.565</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>0.49</v>
+        <v>0.112</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6815</v>
+        <v>1.2655</v>
       </c>
       <c r="I4" t="n">
-        <v>150.6258</v>
+        <v>143.4522</v>
       </c>
       <c r="J4" t="n">
-        <v>0.099</v>
+        <v>1.1129</v>
       </c>
       <c r="K4" t="n">
-        <v>1.0466</v>
-      </c>
-      <c r="L4" t="n">
-        <v>98.48</v>
-      </c>
+        <v>0.645</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>152.3041</v>
+        <v>117.8797</v>
       </c>
       <c r="N4" t="n">
-        <v>32.502</v>
+        <v>92.18089999999999</v>
       </c>
       <c r="O4" t="n">
-        <v>56.251</v>
+        <v>117.2688</v>
       </c>
       <c r="P4" t="n">
-        <v>52.6342</v>
+        <v>52.6779</v>
       </c>
       <c r="Q4" t="n">
-        <v>246.2</v>
+        <v>164.1199</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1206</v>
+        <v>0.248</v>
       </c>
       <c r="S4" t="n">
-        <v>3.7254</v>
+        <v>7.5836</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.0522</v>
       </c>
       <c r="U4" t="n">
-        <v>7.5647</v>
+        <v>25.1246</v>
       </c>
       <c r="V4" t="n">
-        <v>3.7187</v>
+        <v>17.2408</v>
       </c>
       <c r="W4" t="n">
-        <v>0.7844</v>
+        <v>0.09</v>
       </c>
       <c r="X4" t="n">
-        <v>62.5089</v>
+        <v>61.1214</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.4051</v>
+        <v>3.1157</v>
       </c>
       <c r="Z4" t="n">
-        <v>11.4045</v>
+        <v>5.8976</v>
       </c>
       <c r="AA4" t="n">
-        <v>90.10290000000001</v>
+        <v>70.2247</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.1568</v>
+        <v>0.2304</v>
       </c>
       <c r="AC4" t="n">
-        <v>3.8068</v>
+        <v>19.1567</v>
       </c>
       <c r="AD4" t="n">
-        <v>274.8</v>
+        <v>286.4565</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.3885</v>
+        <v>0.4055</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.3621</v>
+        <v>3.8023</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.928</v>
+        <v>0.55</v>
       </c>
       <c r="C5" t="n">
-        <v>14.9447</v>
+        <v>28.0881</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>34.9897</v>
+        <v>54.7407</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>0.325</v>
+        <v>0.223</v>
       </c>
       <c r="H5" t="n">
-        <v>2.7846</v>
+        <v>4.3998</v>
       </c>
       <c r="I5" t="n">
-        <v>153.396</v>
+        <v>148.5473</v>
       </c>
       <c r="J5" t="n">
-        <v>0.11</v>
+        <v>0.9842</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2596</v>
+        <v>0.8487</v>
       </c>
       <c r="L5" t="n">
-        <v>1.255</v>
+        <v>0.2838</v>
       </c>
       <c r="M5" t="n">
-        <v>65.51179999999999</v>
+        <v>139.3101</v>
       </c>
       <c r="N5" t="n">
-        <v>47.3841</v>
+        <v>110.3882</v>
       </c>
       <c r="O5" t="n">
-        <v>58.7782</v>
+        <v>132.1777</v>
       </c>
       <c r="P5" t="n">
-        <v>34.9897</v>
+        <v>55.7249</v>
       </c>
       <c r="Q5" t="n">
-        <v>169.2907</v>
+        <v>176.5706</v>
       </c>
       <c r="R5" t="n">
-        <v>0.4208</v>
+        <v>0.199</v>
       </c>
       <c r="S5" t="n">
-        <v>1.9569</v>
+        <v>7.1254</v>
       </c>
       <c r="T5" t="n">
-        <v>3.0312</v>
+        <v>0.0522</v>
       </c>
       <c r="U5" t="n">
-        <v>13.2328</v>
+        <v>31.6146</v>
       </c>
       <c r="V5" t="n">
-        <v>7.8239</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.3092</v>
-      </c>
+        <v>24.238</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>91.2792</v>
+        <v>63.2229</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.106999999999999</v>
+        <v>3.3842</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.6395999999999999</v>
+        <v>5.3435</v>
       </c>
       <c r="AA5" t="n">
-        <v>101.335</v>
+        <v>71.95059999999999</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.8652</v>
+        <v>0.2104</v>
       </c>
       <c r="AC5" t="n">
-        <v>15.2469</v>
+        <v>19.2642</v>
       </c>
       <c r="AD5" t="n">
-        <v>280.0482</v>
+        <v>319.472</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.3746</v>
+        <v>0.3255</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.2871</v>
+        <v>6.3239</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.9811</v>
+        <v>0.55</v>
       </c>
       <c r="C6" t="n">
-        <v>17.8078</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>29.9819</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.4967</v>
+      </c>
       <c r="E6" t="n">
-        <v>35.0889</v>
+        <v>54.7847</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>0.3485</v>
+        <v>0.2212</v>
       </c>
       <c r="H6" t="n">
-        <v>4.3748</v>
+        <v>5.1145</v>
       </c>
       <c r="I6" t="n">
-        <v>158.7479</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>151.8782</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.9968</v>
+      </c>
       <c r="K6" t="n">
-        <v>0.2726</v>
+        <v>0.7985</v>
       </c>
       <c r="L6" t="n">
-        <v>1.36</v>
+        <v>0.1468</v>
       </c>
       <c r="M6" t="n">
-        <v>79.84350000000001</v>
+        <v>149.0859</v>
       </c>
       <c r="N6" t="n">
-        <v>58.6946</v>
+        <v>110.9105</v>
       </c>
       <c r="O6" t="n">
-        <v>70.2317</v>
+        <v>142.9299</v>
       </c>
       <c r="P6" t="n">
-        <v>35.0889</v>
+        <v>55.7815</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.8429</v>
+        <v>181.8576</v>
       </c>
       <c r="R6" t="n">
-        <v>0.458</v>
+        <v>0.17</v>
       </c>
       <c r="S6" t="n">
-        <v>2.1418</v>
+        <v>7.4239</v>
       </c>
       <c r="T6" t="n">
-        <v>3.3967</v>
+        <v>0.0522</v>
       </c>
       <c r="U6" t="n">
-        <v>14.4761</v>
+        <v>37.6407</v>
       </c>
       <c r="V6" t="n">
-        <v>8.4796</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.6853</v>
-      </c>
+        <v>29.9946</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="n">
-        <v>93.1277</v>
+        <v>66.2299</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.5618</v>
+        <v>3.5207</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.7899</v>
+        <v>5.4696</v>
       </c>
       <c r="AA6" t="n">
-        <v>106.1647</v>
+        <v>75.22020000000001</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.9883</v>
+        <v>0.2104</v>
       </c>
       <c r="AC6" t="n">
-        <v>15.5103</v>
+        <v>19.3239</v>
       </c>
       <c r="AD6" t="n">
-        <v>253.0675</v>
+        <v>338.6048</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.3746</v>
+        <v>0.3225</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.6181</v>
+        <v>8.7028</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.0607</v>
+        <v>0.55</v>
       </c>
       <c r="C7" t="n">
-        <v>18.252</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>26.1711</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.6494</v>
+      </c>
       <c r="E7" t="n">
-        <v>46.8808</v>
+        <v>57.7571</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>0.8182</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
+        <v>0.2625</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.7474</v>
+      </c>
       <c r="I7" t="n">
-        <v>127.4404</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>157.7769</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.9668</v>
+      </c>
       <c r="K7" t="n">
-        <v>0.4129</v>
-      </c>
-      <c r="L7" t="n">
-        <v>9.710000000000001</v>
-      </c>
+        <v>0.8208</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>100.0202</v>
+        <v>134.9695</v>
       </c>
       <c r="N7" t="n">
-        <v>69.9975</v>
-      </c>
-      <c r="O7" t="inlineStr"/>
+        <v>97.599</v>
+      </c>
+      <c r="O7" t="n">
+        <v>152.9286</v>
+      </c>
       <c r="P7" t="n">
-        <v>46.8808</v>
-      </c>
-      <c r="Q7" t="inlineStr"/>
+        <v>58.7239</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>164.0666</v>
+      </c>
       <c r="R7" t="n">
-        <v>0.7766999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="S7" t="n">
-        <v>3.6925</v>
+        <v>6.3301</v>
       </c>
       <c r="T7" t="n">
-        <v>3.9068</v>
+        <v>0.0248</v>
       </c>
       <c r="U7" t="n">
-        <v>21.481</v>
+        <v>40.8611</v>
       </c>
       <c r="V7" t="n">
-        <v>13.105</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.7766999999999999</v>
-      </c>
+        <v>34.3362</v>
+      </c>
+      <c r="W7" t="inlineStr"/>
       <c r="X7" t="n">
-        <v>53.5575</v>
+        <v>65.18170000000001</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.5517</v>
+        <v>1.791</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.4874</v>
+        <v>4.3033</v>
       </c>
       <c r="AA7" t="n">
-        <v>61.3733</v>
+        <v>71.276</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.0878</v>
+        <v>0.1855</v>
       </c>
       <c r="AC7" t="n">
-        <v>15.4304</v>
+        <v>26.1857</v>
       </c>
       <c r="AD7" t="n">
-        <v>248.9416</v>
+        <v>333.6075</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.437</v>
-      </c>
-      <c r="AF7" t="inlineStr"/>
+        <v>0.3225</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>11.8649</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.5</v>
+        <v>0.55</v>
       </c>
       <c r="C8" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>24.2302</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.2864</v>
+      </c>
       <c r="E8" t="n">
-        <v>43.5</v>
+        <v>56.5717</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
+        <v>0.2236</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.8269</v>
+      </c>
       <c r="I8" t="n">
-        <v>129.3</v>
+        <v>154.9919</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0.8802</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.5</v>
-      </c>
+        <v>1.197</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>111.6</v>
+        <v>137.083</v>
       </c>
       <c r="N8" t="n">
-        <v>88.2</v>
-      </c>
-      <c r="O8" t="inlineStr"/>
+        <v>101.0164</v>
+      </c>
+      <c r="O8" t="n">
+        <v>161.0265</v>
+      </c>
       <c r="P8" t="n">
-        <v>44.4</v>
-      </c>
-      <c r="Q8" t="inlineStr"/>
+        <v>57.4519</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>159.6602</v>
+      </c>
       <c r="R8" t="n">
-        <v>0.8</v>
+        <v>0.17</v>
       </c>
       <c r="S8" t="n">
-        <v>6.6</v>
+        <v>10.9564</v>
       </c>
       <c r="T8" t="n">
-        <v>1.6</v>
+        <v>0.4551</v>
       </c>
       <c r="U8" t="n">
-        <v>22.9</v>
+        <v>49.0496</v>
       </c>
       <c r="V8" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.2</v>
-      </c>
+        <v>37.4681</v>
+      </c>
+      <c r="W8" t="inlineStr"/>
       <c r="X8" t="n">
-        <v>51.7</v>
+        <v>65.1506</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.6</v>
+        <v>1.7232</v>
       </c>
       <c r="Z8" t="n">
-        <v>5.7</v>
+        <v>0.702</v>
       </c>
       <c r="AA8" t="n">
-        <v>60.1</v>
+        <v>67.5758</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.4</v>
+        <v>0.2212</v>
       </c>
       <c r="AC8" t="n">
-        <v>20.4</v>
+        <v>27.9999</v>
       </c>
       <c r="AD8" t="n">
-        <v>263.7968</v>
+        <v>341.1</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AF8" t="inlineStr"/>
+        <v>0.3225</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>15.6109</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.8066</v>
-      </c>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>23.1491</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>23.0651</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.8981</v>
+      </c>
       <c r="E9" t="n">
-        <v>44.3671</v>
+        <v>50.8455</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>0.8374</v>
+        <v>0.0561</v>
       </c>
       <c r="H9" t="n">
-        <v>1.86</v>
+        <v>2.7535</v>
       </c>
       <c r="I9" t="n">
-        <v>132.9188</v>
+        <v>144.3185</v>
       </c>
       <c r="J9" t="n">
-        <v>1.1177</v>
+        <v>0.4328</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4745</v>
+        <v>1.0756</v>
       </c>
       <c r="L9" t="n">
-        <v>12.13</v>
+        <v>2.6422</v>
       </c>
       <c r="M9" t="n">
-        <v>118.2952</v>
+        <v>135.6891</v>
       </c>
       <c r="N9" t="n">
-        <v>82.20950000000001</v>
+        <v>98.08369999999999</v>
       </c>
       <c r="O9" t="n">
-        <v>109.4399</v>
+        <v>161.9865</v>
       </c>
       <c r="P9" t="n">
-        <v>45.4848</v>
+        <v>51.2783</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.4837</v>
+        <v>151.5592</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2136</v>
+        <v>0.17</v>
       </c>
       <c r="S9" t="n">
-        <v>8.124700000000001</v>
+        <v>9.7395</v>
       </c>
       <c r="T9" t="n">
-        <v>1.6485</v>
+        <v>0.3347</v>
       </c>
       <c r="U9" t="n">
-        <v>25.8572</v>
+        <v>57.9137</v>
       </c>
       <c r="V9" t="n">
-        <v>15.8704</v>
+        <v>47.6695</v>
       </c>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="n">
-        <v>60.08</v>
+        <v>64.9594</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.0636</v>
+        <v>1.9542</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.0084</v>
+        <v>0.549</v>
       </c>
       <c r="AA9" t="n">
-        <v>69.152</v>
+        <v>67.46259999999999</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.8856000000000001</v>
+        <v>0.257</v>
       </c>
       <c r="AC9" t="n">
-        <v>15.641</v>
+        <v>23.8889</v>
       </c>
       <c r="AD9" t="n">
-        <v>277.0712</v>
+        <v>337.9213</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.4435</v>
+        <v>0.3</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.2876</v>
+        <v>21.6221</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.8552999999999999</v>
-      </c>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>24.8435</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>22.8692</v>
+      </c>
+      <c r="D10" t="n">
+        <v>13.866</v>
+      </c>
       <c r="E10" t="n">
-        <v>51.565</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
+        <v>36.864</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0516</v>
+      </c>
       <c r="G10" t="n">
-        <v>0.112</v>
+        <v>0.0301</v>
       </c>
       <c r="H10" t="n">
-        <v>1.2655</v>
+        <v>1.2063</v>
       </c>
       <c r="I10" t="n">
-        <v>143.4522</v>
+        <v>127.2077</v>
       </c>
       <c r="J10" t="n">
-        <v>1.1129</v>
+        <v>0.02</v>
       </c>
       <c r="K10" t="n">
-        <v>0.645</v>
-      </c>
-      <c r="L10" t="inlineStr"/>
+        <v>1.1298</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.9928</v>
+      </c>
       <c r="M10" t="n">
-        <v>117.8797</v>
+        <v>137.1138</v>
       </c>
       <c r="N10" t="n">
-        <v>92.18089999999999</v>
+        <v>97.3858</v>
       </c>
       <c r="O10" t="n">
-        <v>117.2688</v>
+        <v>169.1543</v>
       </c>
       <c r="P10" t="n">
-        <v>52.6779</v>
+        <v>36.884</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.1199</v>
+        <v>137.8899</v>
       </c>
       <c r="R10" t="n">
-        <v>0.248</v>
+        <v>0.17</v>
       </c>
       <c r="S10" t="n">
-        <v>7.5836</v>
+        <v>9.9213</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0522</v>
+        <v>0.6999</v>
       </c>
       <c r="U10" t="n">
-        <v>25.1246</v>
+        <v>68.3138</v>
       </c>
       <c r="V10" t="n">
-        <v>17.2408</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0.09</v>
-      </c>
+        <v>57.471</v>
+      </c>
+      <c r="W10" t="inlineStr"/>
       <c r="X10" t="n">
-        <v>61.1214</v>
+        <v>67.46120000000001</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.1157</v>
+        <v>1.2386</v>
       </c>
       <c r="Z10" t="n">
-        <v>5.8976</v>
+        <v>0.3575</v>
       </c>
       <c r="AA10" t="n">
-        <v>70.2247</v>
+        <v>69.0573</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.2304</v>
+        <v>0.257</v>
       </c>
       <c r="AC10" t="n">
-        <v>19.1567</v>
+        <v>19.6195</v>
       </c>
       <c r="AD10" t="n">
-        <v>286.4565</v>
+        <v>332.6</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.4055</v>
+        <v>0.23</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.8023</v>
+        <v>24.3848</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.55</v>
-      </c>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>28.0881</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>23.9277</v>
+      </c>
+      <c r="D11" t="n">
+        <v>13.584</v>
+      </c>
       <c r="E11" t="n">
-        <v>54.7407</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
+        <v>45.0233</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0543</v>
+      </c>
       <c r="G11" t="n">
-        <v>0.223</v>
+        <v>0.2029</v>
       </c>
       <c r="H11" t="n">
-        <v>4.3998</v>
+        <v>1.277</v>
       </c>
       <c r="I11" t="n">
-        <v>148.5473</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.9842</v>
-      </c>
+        <v>121.0053</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>0.8487</v>
+        <v>0.9791</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2838</v>
+        <v>3.5775</v>
       </c>
       <c r="M11" t="n">
-        <v>139.3101</v>
+        <v>140.9452</v>
       </c>
       <c r="N11" t="n">
-        <v>110.3882</v>
+        <v>99.85599999999999</v>
       </c>
       <c r="O11" t="n">
-        <v>132.1777</v>
+        <v>179.1247</v>
       </c>
       <c r="P11" t="n">
-        <v>55.7249</v>
+        <v>45.0233</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.5706</v>
+        <v>132.4616</v>
       </c>
       <c r="R11" t="n">
-        <v>0.199</v>
+        <v>0.2</v>
       </c>
       <c r="S11" t="n">
-        <v>7.1254</v>
+        <v>10.9174</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0522</v>
+        <v>0.671</v>
       </c>
       <c r="U11" t="n">
-        <v>31.6146</v>
+        <v>84.6626</v>
       </c>
       <c r="V11" t="n">
-        <v>24.238</v>
-      </c>
-      <c r="W11" t="inlineStr"/>
+        <v>72.8199</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.163</v>
+      </c>
       <c r="X11" t="n">
-        <v>63.2229</v>
+        <v>53.3719</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.3842</v>
+        <v>1.2339</v>
       </c>
       <c r="Z11" t="n">
-        <v>5.3435</v>
+        <v>0.2227</v>
       </c>
       <c r="AA11" t="n">
-        <v>71.95059999999999</v>
+        <v>54.9915</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.2104</v>
+        <v>0.246</v>
       </c>
       <c r="AC11" t="n">
-        <v>19.2642</v>
+        <v>19.3325</v>
       </c>
       <c r="AD11" t="n">
-        <v>319.472</v>
+        <v>346.6131</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.3255</v>
+        <v>0.23</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.3239</v>
+        <v>33.7498</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.55</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>29.9819</v>
+        <v>24.1407</v>
       </c>
       <c r="D12" t="n">
-        <v>7.4967</v>
+        <v>14.1019</v>
       </c>
       <c r="E12" t="n">
-        <v>54.7847</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
+        <v>72.16849999999999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0543</v>
+      </c>
       <c r="G12" t="n">
-        <v>0.2212</v>
+        <v>0.1875</v>
       </c>
       <c r="H12" t="n">
-        <v>5.1145</v>
+        <v>19.3018</v>
       </c>
       <c r="I12" t="n">
-        <v>151.8782</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.9968</v>
-      </c>
+        <v>146.0975</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>0.7985</v>
+        <v>0.9725</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1468</v>
+        <v>3.8002</v>
       </c>
       <c r="M12" t="n">
-        <v>149.0859</v>
+        <v>144.4233</v>
       </c>
       <c r="N12" t="n">
-        <v>110.9105</v>
+        <v>102.3805</v>
       </c>
       <c r="O12" t="n">
-        <v>142.9299</v>
+        <v>186.7002</v>
       </c>
       <c r="P12" t="n">
-        <v>55.7815</v>
+        <v>72.16849999999999</v>
       </c>
       <c r="Q12" t="n">
-        <v>181.8576</v>
+        <v>138.485</v>
       </c>
       <c r="R12" t="n">
-        <v>0.17</v>
+        <v>0.4226</v>
       </c>
       <c r="S12" t="n">
-        <v>7.4239</v>
+        <v>11.5719</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0522</v>
+        <v>0.5588</v>
       </c>
       <c r="U12" t="n">
-        <v>37.6407</v>
+        <v>90.7192</v>
       </c>
       <c r="V12" t="n">
-        <v>29.9946</v>
+        <v>78.1116</v>
       </c>
       <c r="W12" t="inlineStr"/>
-      <c r="X12" t="n">
-        <v>66.2299</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>3.5207</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>5.4696</v>
-      </c>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="n">
-        <v>75.22020000000001</v>
+        <v>53.5807</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.2104</v>
+        <v>0.2574</v>
       </c>
       <c r="AC12" t="n">
-        <v>19.3239</v>
+        <v>18.3168</v>
       </c>
       <c r="AD12" t="n">
-        <v>338.6048</v>
+        <v>381.24</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.3225</v>
+        <v>0.23</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.7028</v>
+        <v>36.3689</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.55</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>26.1711</v>
+        <v>24.6345</v>
       </c>
       <c r="D13" t="n">
-        <v>10.6494</v>
+        <v>13.9826</v>
       </c>
       <c r="E13" t="n">
-        <v>57.7571</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
+        <v>46.4668</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0589</v>
+      </c>
       <c r="G13" t="n">
-        <v>0.2625</v>
+        <v>0.1875</v>
       </c>
       <c r="H13" t="n">
-        <v>4.7474</v>
+        <v>27.3264</v>
       </c>
       <c r="I13" t="n">
-        <v>157.7769</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.9668</v>
-      </c>
+        <v>151.6335</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>0.8208</v>
-      </c>
-      <c r="L13" t="inlineStr"/>
+        <v>0.7419</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4.5026</v>
+      </c>
       <c r="M13" t="n">
-        <v>134.9695</v>
+        <v>151.6267</v>
       </c>
       <c r="N13" t="n">
-        <v>97.599</v>
+        <v>108.507</v>
       </c>
       <c r="O13" t="n">
-        <v>152.9286</v>
+        <v>193.4184</v>
       </c>
       <c r="P13" t="n">
-        <v>58.7239</v>
+        <v>46.4668</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.0666</v>
+        <v>135.579</v>
       </c>
       <c r="R13" t="n">
-        <v>0.17</v>
+        <v>0.4697</v>
       </c>
       <c r="S13" t="n">
-        <v>6.3301</v>
+        <v>11.9893</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0248</v>
+        <v>0.5225</v>
       </c>
       <c r="U13" t="n">
-        <v>40.8611</v>
+        <v>95.26690000000001</v>
       </c>
       <c r="V13" t="n">
-        <v>34.3362</v>
+        <v>82.2265</v>
       </c>
       <c r="W13" t="inlineStr"/>
-      <c r="X13" t="n">
-        <v>65.18170000000001</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>4.3033</v>
-      </c>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="n">
-        <v>71.276</v>
+        <v>86.3643</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.1855</v>
+        <v>0.2574</v>
       </c>
       <c r="AC13" t="n">
-        <v>26.1857</v>
+        <v>16.9906</v>
       </c>
       <c r="AD13" t="n">
-        <v>333.6075</v>
+        <v>398.5271</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.3225</v>
+        <v>0.23</v>
       </c>
       <c r="AF13" t="n">
-        <v>11.8649</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="C14" t="n">
-        <v>24.2302</v>
-      </c>
-      <c r="D14" t="n">
-        <v>11.2864</v>
-      </c>
-      <c r="E14" t="n">
-        <v>56.5717</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
-        <v>0.2236</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4.8269</v>
-      </c>
-      <c r="I14" t="n">
-        <v>154.9919</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.8802</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1.197</v>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>137.083</v>
-      </c>
-      <c r="N14" t="n">
-        <v>101.0164</v>
-      </c>
-      <c r="O14" t="n">
-        <v>161.0265</v>
-      </c>
-      <c r="P14" t="n">
-        <v>57.4519</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>159.6602</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="S14" t="n">
-        <v>10.9564</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0.4551</v>
-      </c>
-      <c r="U14" t="n">
-        <v>49.0496</v>
-      </c>
-      <c r="V14" t="n">
-        <v>37.4681</v>
-      </c>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="n">
-        <v>65.1506</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>1.7232</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0.702</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>67.5758</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0.2212</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>27.9999</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>341.1</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0.3225</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>15.6109</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
-        <v>23.0651</v>
-      </c>
-      <c r="D15" t="n">
-        <v>11.8981</v>
-      </c>
-      <c r="E15" t="n">
-        <v>50.8455</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
-        <v>0.0561</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2.7535</v>
-      </c>
-      <c r="I15" t="n">
-        <v>144.3185</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.4328</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1.0756</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2.6422</v>
-      </c>
-      <c r="M15" t="n">
-        <v>135.6891</v>
-      </c>
-      <c r="N15" t="n">
-        <v>98.08369999999999</v>
-      </c>
-      <c r="O15" t="n">
-        <v>161.9865</v>
-      </c>
-      <c r="P15" t="n">
-        <v>51.2783</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>151.5592</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="S15" t="n">
-        <v>9.7395</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0.3347</v>
-      </c>
-      <c r="U15" t="n">
-        <v>57.9137</v>
-      </c>
-      <c r="V15" t="n">
-        <v>47.6695</v>
-      </c>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="n">
-        <v>64.9594</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1.9542</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0.549</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>67.46259999999999</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0.257</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>23.8889</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>337.9213</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>21.6221</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="n">
-        <v>22.8692</v>
-      </c>
-      <c r="D16" t="n">
-        <v>13.866</v>
-      </c>
-      <c r="E16" t="n">
-        <v>36.864</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.0516</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.0301</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1.2063</v>
-      </c>
-      <c r="I16" t="n">
-        <v>127.2077</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1.1298</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.9928</v>
-      </c>
-      <c r="M16" t="n">
-        <v>137.1138</v>
-      </c>
-      <c r="N16" t="n">
-        <v>97.3858</v>
-      </c>
-      <c r="O16" t="n">
-        <v>169.1543</v>
-      </c>
-      <c r="P16" t="n">
-        <v>36.884</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>137.8899</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="S16" t="n">
-        <v>9.9213</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0.6999</v>
-      </c>
-      <c r="U16" t="n">
-        <v>68.3138</v>
-      </c>
-      <c r="V16" t="n">
-        <v>57.471</v>
-      </c>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="n">
-        <v>67.46120000000001</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>1.2386</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0.3575</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>69.0573</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0.257</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>19.6195</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>332.6</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>24.3848</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
-        <v>23.9277</v>
-      </c>
-      <c r="D17" t="n">
-        <v>13.584</v>
-      </c>
-      <c r="E17" t="n">
-        <v>45.0233</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0543</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.2029</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1.277</v>
-      </c>
-      <c r="I17" t="n">
-        <v>121.0053</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>0.9791</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.5775</v>
-      </c>
-      <c r="M17" t="n">
-        <v>140.9452</v>
-      </c>
-      <c r="N17" t="n">
-        <v>99.85599999999999</v>
-      </c>
-      <c r="O17" t="n">
-        <v>179.1247</v>
-      </c>
-      <c r="P17" t="n">
-        <v>45.0233</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>132.4616</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="S17" t="n">
-        <v>10.9174</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0.671</v>
-      </c>
-      <c r="U17" t="n">
-        <v>84.6626</v>
-      </c>
-      <c r="V17" t="n">
-        <v>72.8199</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0.163</v>
-      </c>
-      <c r="X17" t="n">
-        <v>53.3719</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>1.2339</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0.2227</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>54.9915</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0.246</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>19.3325</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>346.6131</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>33.7498</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="n">
-        <v>24.1407</v>
-      </c>
-      <c r="D18" t="n">
-        <v>14.1019</v>
-      </c>
-      <c r="E18" t="n">
-        <v>72.16849999999999</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.0543</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.1875</v>
-      </c>
-      <c r="H18" t="n">
-        <v>19.3018</v>
-      </c>
-      <c r="I18" t="n">
-        <v>146.0975</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>0.9725</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3.8002</v>
-      </c>
-      <c r="M18" t="n">
-        <v>144.4233</v>
-      </c>
-      <c r="N18" t="n">
-        <v>102.3805</v>
-      </c>
-      <c r="O18" t="n">
-        <v>186.7002</v>
-      </c>
-      <c r="P18" t="n">
-        <v>72.16849999999999</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>138.485</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.4226</v>
-      </c>
-      <c r="S18" t="n">
-        <v>11.5719</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0.5588</v>
-      </c>
-      <c r="U18" t="n">
-        <v>90.7192</v>
-      </c>
-      <c r="V18" t="n">
-        <v>78.1116</v>
-      </c>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="n">
-        <v>53.5807</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0.2574</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>18.3168</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>381.24</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>36.3689</v>
+        <v>41.8083</v>
       </c>
     </row>
   </sheetData>
